--- a/all_sessions_filtered_Refined.xlsx
+++ b/all_sessions_filtered_Refined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhochhi/Documents/aws-re-invent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{409B4687-187D-4244-AE86-D13CAF7507D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{250FB666-49E5-6040-916A-15D7DEE1D646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74260" yWindow="-11240" windowWidth="38400" windowHeight="21100" xr2:uid="{DA486310-CF6E-4248-A738-F820AD85C5FE}"/>
+    <workbookView xWindow="72740" yWindow="-11360" windowWidth="38400" windowHeight="21100" xr2:uid="{DA486310-CF6E-4248-A738-F820AD85C5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="all_sessions_filtered_Refined" sheetId="1" r:id="rId1"/>
@@ -3010,8 +3010,8 @@
   <dimension ref="A1:I355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
